--- a/06Março/export12345.xlsx
+++ b/06Março/export12345.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2250" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8523" uniqueCount="8011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8524" uniqueCount="8012">
   <si>
     <t>Cliente</t>
   </si>
@@ -24054,6 +24054,9 @@
   </si>
   <si>
     <t>DataCob ID</t>
+  </si>
+  <si>
+    <t>teste de carga do github</t>
   </si>
 </sst>
 </file>
@@ -24904,7 +24907,7 @@
   <dimension ref="A1:F1781"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25075,7 +25078,9 @@
         <f>VLOOKUP(B11,Sheet2!A:B,2,TRUE)</f>
         <v>3215</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>8011</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
